--- a/src/main/resources/emsigner-credentials.xlsx
+++ b/src/main/resources/emsigner-credentials.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="14835" windowHeight="6495"/>
+    <workbookView windowHeight="6495" windowWidth="14835" xWindow="0" yWindow="2775"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginErrCheck" sheetId="28" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="4" r:id="rId2"/>
-    <sheet name="Encrypt" sheetId="6" r:id="rId3"/>
-    <sheet name="Decrypt" sheetId="7" r:id="rId4"/>
-    <sheet name="Form16" sheetId="12" r:id="rId5"/>
-    <sheet name="Form" sheetId="14" r:id="rId6"/>
-    <sheet name="Dashboard" sheetId="15" r:id="rId7"/>
-    <sheet name="AnyDoc" sheetId="17" r:id="rId8"/>
-    <sheet name="BulkDoc" sheetId="20" r:id="rId9"/>
-    <sheet name="AdminSettings" sheetId="22" r:id="rId10"/>
-    <sheet name="Settings" sheetId="23" r:id="rId11"/>
-    <sheet name="PlanPricing" sheetId="24" r:id="rId12"/>
-    <sheet name="WFExternalFile" sheetId="26" r:id="rId13"/>
+    <sheet name="LoginErrCheck" r:id="rId1" sheetId="28"/>
+    <sheet name="Credentials" r:id="rId2" sheetId="4"/>
+    <sheet name="Encrypt" r:id="rId3" sheetId="6"/>
+    <sheet name="Decrypt" r:id="rId4" sheetId="7"/>
+    <sheet name="Form16" r:id="rId5" sheetId="12"/>
+    <sheet name="Form" r:id="rId6" sheetId="14"/>
+    <sheet name="Dashboard" r:id="rId7" sheetId="15"/>
+    <sheet name="AnyDoc" r:id="rId8" sheetId="17"/>
+    <sheet name="BulkDoc" r:id="rId9" sheetId="20"/>
+    <sheet name="AdminSettings" r:id="rId10" sheetId="22"/>
+    <sheet name="Settings" r:id="rId11" sheetId="23"/>
+    <sheet name="PlanPricing" r:id="rId12" sheetId="24"/>
+    <sheet name="WFExternalFile" r:id="rId13" sheetId="26"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="208">
   <si>
     <t>TC_ID</t>
   </si>
@@ -657,6 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,30 +722,30 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -758,10 +759,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -919,7 +920,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -928,13 +929,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -944,7 +945,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -953,7 +954,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -962,7 +963,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -972,12 +973,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1008,7 +1009,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1027,7 +1028,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1039,8 +1040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -1048,9 +1049,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1185,18 +1186,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="testem048@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="testem048@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink display="testem048@gmail.com" r:id="rId1" ref="E2"/>
+    <hyperlink display="testem048@gmail.com" r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E5"/>
+    <hyperlink r:id="rId4" ref="E4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
@@ -1204,9 +1205,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="53.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,14 +1649,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
@@ -1663,10 +1664,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="45.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1905,15 +1906,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="G2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
@@ -1921,10 +1922,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -2083,15 +2084,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="O2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -2099,8 +2100,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="47.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2202,13 +2203,13 @@
       <c r="H4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
@@ -2216,8 +2217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2296,16 +2297,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -2313,9 +2314,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="47.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,16 +2607,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -2623,9 +2624,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="47.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,16 +2837,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
@@ -2853,10 +2854,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,15 +3096,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="E7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -3111,9 +3112,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3191,13 +3192,13 @@
       <c r="H3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3232,13 +3233,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
@@ -3272,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -3377,13 +3378,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
@@ -3391,9 +3392,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3580,8 +3581,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="E7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/emsigner-credentials.xlsx
+++ b/src/main/resources/emsigner-credentials.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="6495" windowWidth="14835" xWindow="0" yWindow="2775"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14550" windowHeight="6495" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginErrCheck" r:id="rId1" sheetId="28"/>
-    <sheet name="Credentials" r:id="rId2" sheetId="4"/>
-    <sheet name="Encrypt" r:id="rId3" sheetId="6"/>
-    <sheet name="Decrypt" r:id="rId4" sheetId="7"/>
-    <sheet name="Form16" r:id="rId5" sheetId="12"/>
-    <sheet name="Form" r:id="rId6" sheetId="14"/>
-    <sheet name="Dashboard" r:id="rId7" sheetId="15"/>
-    <sheet name="AnyDoc" r:id="rId8" sheetId="17"/>
-    <sheet name="BulkDoc" r:id="rId9" sheetId="20"/>
-    <sheet name="AdminSettings" r:id="rId10" sheetId="22"/>
-    <sheet name="Settings" r:id="rId11" sheetId="23"/>
-    <sheet name="PlanPricing" r:id="rId12" sheetId="24"/>
-    <sheet name="WFExternalFile" r:id="rId13" sheetId="26"/>
+    <sheet name="LoginErrCheck" sheetId="28" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="4" r:id="rId2"/>
+    <sheet name="Encrypt" sheetId="6" r:id="rId3"/>
+    <sheet name="Decrypt" sheetId="7" r:id="rId4"/>
+    <sheet name="Form16" sheetId="12" r:id="rId5"/>
+    <sheet name="Form" sheetId="14" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="15" r:id="rId7"/>
+    <sheet name="AnyDoc" sheetId="17" r:id="rId8"/>
+    <sheet name="BulkDoc" sheetId="20" r:id="rId9"/>
+    <sheet name="AdminSettings" sheetId="22" r:id="rId10"/>
+    <sheet name="Settings" sheetId="23" r:id="rId11"/>
+    <sheet name="PlanPricing" sheetId="24" r:id="rId12"/>
+    <sheet name="WFExternalFile" sheetId="26" r:id="rId13"/>
+    <sheet name="OnlineSign" sheetId="29" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="237">
   <si>
     <t>TC_ID</t>
   </si>
@@ -398,9 +399,6 @@
     <t>Bill_Frequency</t>
   </si>
   <si>
-    <t>Monthly</t>
-  </si>
-  <si>
     <t>No_of_Sign</t>
   </si>
   <si>
@@ -651,13 +649,102 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>FTPAddBtn</t>
+  </si>
+  <si>
+    <t>FTPTstConn</t>
+  </si>
+  <si>
+    <t>FTPTestConnWithDetails</t>
+  </si>
+  <si>
+    <t>FTPAddBtnWithDetails</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>Profile Name is required</t>
+  </si>
+  <si>
+    <t>Unable To Connect To Server</t>
+  </si>
+  <si>
+    <t>Connection Established</t>
+  </si>
+  <si>
+    <t>FTPToggleSearch</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>FTPEditBtn</t>
+  </si>
+  <si>
+    <t>FTPDeleteBtn</t>
+  </si>
+  <si>
+    <t>CertAddBtn</t>
+  </si>
+  <si>
+    <t>Key name and key value both are required</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>CertDropdown</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>esign</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Please configure all the controls in the document.</t>
+  </si>
+  <si>
+    <t>ConfigMsg</t>
+  </si>
+  <si>
+    <t>Workflow has been signed Sucessfully</t>
+  </si>
+  <si>
+    <t>SucessMsg</t>
+  </si>
+  <si>
+    <t>Create Flexiform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,30 +809,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -759,10 +847,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -920,7 +1008,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -929,13 +1017,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -945,7 +1033,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -954,7 +1042,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -963,7 +1051,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -973,12 +1061,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1009,7 +1097,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1028,7 +1116,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1040,18 +1128,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,19 +1179,19 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,24 +1205,24 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1143,71 +1231,71 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="testem048@gmail.com" r:id="rId1" ref="E2"/>
-    <hyperlink display="testem048@gmail.com" r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E5"/>
-    <hyperlink r:id="rId4" ref="E4"/>
+    <hyperlink ref="E2" r:id="rId1" display="testem048@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="testem048@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,31 +1558,33 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="G11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -1503,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1512,15 +1602,15 @@
         <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
@@ -1529,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -1538,15 +1628,15 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -1555,7 +1645,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -1572,7 +1662,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1581,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -1590,15 +1680,15 @@
         <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -1607,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -1616,15 +1706,15 @@
         <v>13</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -1633,7 +1723,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1648,15 +1738,244 @@
         <v>114</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
@@ -1664,10 +1983,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="45.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1906,26 +2225,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1957,52 +2276,52 @@
         <v>122</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -2016,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -2025,83 +2344,83 @@
         <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N2" s="1">
         <v>9449745648</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="O2"/>
+    <hyperlink ref="O2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" width="47.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2141,7 +2460,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -2150,10 +2469,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,17 +2486,17 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2191,25 +2510,109 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
@@ -2217,8 +2620,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -2297,16 +2700,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
-    <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -2314,9 +2717,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2477,7 +2880,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2486,7 +2889,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -2503,7 +2906,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2512,7 +2915,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -2529,7 +2932,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2538,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -2555,7 +2958,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2564,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -2581,7 +2984,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2590,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -2607,16 +3010,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G7"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -2624,9 +3027,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2759,7 +3162,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2768,7 +3171,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -2785,7 +3188,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2794,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -2811,7 +3214,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2820,7 +3223,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -2837,16 +3240,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
@@ -2854,10 +3257,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3096,15 +3499,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E7"/>
+    <hyperlink ref="E7" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -3112,9 +3515,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3192,13 +3595,13 @@
       <c r="H3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3233,13 +3636,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
@@ -3273,7 +3676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -3327,7 +3730,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3336,7 +3739,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -3345,10 +3748,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3378,13 +3781,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
@@ -3392,9 +3795,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,8 +3984,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E7"/>
+    <hyperlink ref="E7" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>